--- a/Chess-Records.xlsx
+++ b/Chess-Records.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personal\GitHubBack\ChessDoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA57D0E-9F77-4A0D-97D7-9F996CB57448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A828211-39CB-4A28-97CA-E8F9CD4DE0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="ChessPlan" sheetId="2" r:id="rId2"/>
+    <sheet name="BvsP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +27,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>Dad-1</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>hr/units</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Tactice</t>
+  </si>
+  <si>
+    <t>4-5/100</t>
+  </si>
+  <si>
+    <t>Fritz Tactice/Book/Pgn</t>
+  </si>
+  <si>
+    <t>Strayegy</t>
+  </si>
+  <si>
+    <t>Amature mind, Reasses, Judgement and planning, my system</t>
+  </si>
+  <si>
+    <t>Opening</t>
+  </si>
+  <si>
+    <t>2-3/2</t>
+  </si>
+  <si>
+    <t>reprotire/Video</t>
+  </si>
+  <si>
+    <t>Need to play in lichess on interactive mode</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Chessmood/Silman</t>
+  </si>
+  <si>
+    <t>1hr Chessmood/ 1 hr silman</t>
+  </si>
+  <si>
+    <t>Game-Study</t>
+  </si>
+  <si>
+    <t>4-5/4-5</t>
+  </si>
+  <si>
+    <t>move by move, Most instructive Game, My memorable 60, My system, Judgement and planning</t>
+  </si>
+  <si>
+    <t>Game-play</t>
+  </si>
+  <si>
+    <t>3-4/2</t>
+  </si>
+  <si>
+    <t>Sunday tournament/ weakly one long game</t>
+  </si>
+  <si>
+    <t>Game Review</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>2 sittings</t>
+  </si>
+  <si>
+    <t>Review of Game-study and Game Play</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>18--23</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>ThurseDay</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>SaturDay</t>
+  </si>
+  <si>
+    <t>Game-Play</t>
+  </si>
+  <si>
+    <t>Game-Play Tournament</t>
+  </si>
+  <si>
+    <t>Game-Review</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>End-Game</t>
   </si>
 </sst>
 </file>
@@ -63,8 +185,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,8 +470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -476,4 +599,252 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C8DE82-E3EE-46DE-9DAA-D8582C12DD0E}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FD6E4C2-AFDE-40F3-8B7E-4AC77DB413B7}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>